--- a/files/Default_Excel_Template.xlsx
+++ b/files/Default_Excel_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Jiang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Samuel Jiang\Projects\Training-Registration\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0A5036-3885-493D-AF89-AC1FB9142B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AA8CE4-9219-4D10-BB2C-ABF55DC37C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7776" yWindow="3444" windowWidth="23040" windowHeight="12012" xr2:uid="{6408E731-E322-40C5-9C09-23E097C5BC60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6408E731-E322-40C5-9C09-23E097C5BC60}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Registration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Registration Time</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Institution</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -148,9 +151,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{791DB6AD-92FB-4DD3-B99B-291258F51C90}" name="Table1" displayName="Table1" ref="A1:S2" totalsRowShown="0">
-  <autoFilter ref="A1:S2" xr:uid="{791DB6AD-92FB-4DD3-B99B-291258F51C90}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{791DB6AD-92FB-4DD3-B99B-291258F51C90}" name="Table1" displayName="Table1" ref="A1:T2" totalsRowShown="0">
+  <autoFilter ref="A1:T2" xr:uid="{791DB6AD-92FB-4DD3-B99B-291258F51C90}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{F4C66994-9008-4C2F-8068-7F21AA828C16}" name="Registration Time"/>
     <tableColumn id="2" xr3:uid="{3EC05F13-503F-4C8B-AB5E-3D099ACD3C1C}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{04F2104C-5293-4BFA-8013-4C6782F32CA2}" name="Last Name"/>
@@ -159,6 +162,7 @@
     <tableColumn id="6" xr3:uid="{32F9F534-F7D3-4A76-9ABC-CE6F4D994188}" name="Age"/>
     <tableColumn id="7" xr3:uid="{EF67B3CF-5A37-401B-A2C7-EFC8E47212D2}" name="School"/>
     <tableColumn id="8" xr3:uid="{62623947-1134-4F48-B97F-A942A414C3CC}" name="School Username"/>
+    <tableColumn id="11" xr3:uid="{CECA1B97-3B9F-4D3E-8C50-432F700985AE}" name="Email"/>
     <tableColumn id="9" xr3:uid="{7236AD6C-1B60-47B2-AE5D-C3700632D0DF}" name="Phone"/>
     <tableColumn id="10" xr3:uid="{ED5DC68C-3369-4EA3-A50B-ACEB403B750F}" name="Position in LC"/>
     <tableColumn id="15" xr3:uid="{BC4517BB-A205-4E7E-A7B8-710BEC2ACFAB}" name="LC"/>
@@ -492,31 +496,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569114A3-B0F5-4DE9-8EF0-2A7568760DA6}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="11" width="14" customWidth="1"/>
-    <col min="12" max="13" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="18.5546875" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="8" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="12" width="14" customWidth="1"/>
+    <col min="13" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="18.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,36 +546,39 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
     </row>
